--- a/output.xlsx
+++ b/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>ファイル名</t>
   </si>
@@ -46,37 +46,28 @@
     <t>確率楕円の短半径(3σ)</t>
   </si>
   <si>
-    <t>マハラノビス距離(1σ)</t>
-  </si>
-  <si>
-    <t>マハラノビス距離(2σ)</t>
-  </si>
-  <si>
-    <t>マハラノビス距離(3σ)</t>
-  </si>
-  <si>
     <t>相関係数</t>
   </si>
   <si>
-    <t>ブック 1 (1).xlsx</t>
-  </si>
-  <si>
-    <t>ブック 1 (2).xlsx</t>
-  </si>
-  <si>
-    <t>ブック 1 2.xlsx</t>
-  </si>
-  <si>
-    <t>ブック 1 d(2).xlsx</t>
-  </si>
-  <si>
-    <t>ブック 1.xlsx</t>
-  </si>
-  <si>
-    <t>座標ファイル1.xlsx</t>
-  </si>
-  <si>
-    <t>座標ファイル2.xlsx</t>
+    <t>test1.xlsx</t>
+  </si>
+  <si>
+    <t>test2.xlsx</t>
+  </si>
+  <si>
+    <t>test3.xlsx</t>
+  </si>
+  <si>
+    <t>test4.xlsx</t>
+  </si>
+  <si>
+    <t>test5.xlsx</t>
+  </si>
+  <si>
+    <t>test6.xlsx</t>
+  </si>
+  <si>
+    <t>test7.xlsx</t>
   </si>
 </sst>
 </file>
@@ -434,13 +425,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -474,19 +465,10 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
         <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" t="s">
-        <v>14</v>
       </c>
       <c r="B2">
         <v>83031.39795335424</v>
@@ -516,21 +498,12 @@
         <v>182.3277984107175</v>
       </c>
       <c r="K2">
-        <v>1.515172903961339</v>
-      </c>
-      <c r="L2">
-        <v>2.485975524063778</v>
-      </c>
-      <c r="M2">
-        <v>3.43935431177144</v>
-      </c>
-      <c r="N2">
         <v>-0.8649891788200391</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>440.9100944152166</v>
@@ -560,21 +533,12 @@
         <v>1.203229957873679</v>
       </c>
       <c r="K3">
-        <v>1.515172903961339</v>
-      </c>
-      <c r="L3">
-        <v>2.485975524063778</v>
-      </c>
-      <c r="M3">
-        <v>3.43935431177144</v>
-      </c>
-      <c r="N3">
         <v>-0.14451832825402</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B4">
         <v>588.8824797706453</v>
@@ -604,21 +568,12 @@
         <v>1.05638923708322</v>
       </c>
       <c r="K4">
-        <v>1.515172903961339</v>
-      </c>
-      <c r="L4">
-        <v>2.485975524063778</v>
-      </c>
-      <c r="M4">
-        <v>3.43935431177144</v>
-      </c>
-      <c r="N4">
         <v>-0.2379154757154432</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -647,19 +602,10 @@
       <c r="J5">
         <v>0</v>
       </c>
-      <c r="K5">
-        <v>1.515172903961339</v>
-      </c>
-      <c r="L5">
-        <v>2.485975524063778</v>
-      </c>
-      <c r="M5">
-        <v>3.43935431177144</v>
-      </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -688,19 +634,10 @@
       <c r="J6">
         <v>0</v>
       </c>
-      <c r="K6">
-        <v>1.515172903961339</v>
-      </c>
-      <c r="L6">
-        <v>2.485975524063778</v>
-      </c>
-      <c r="M6">
-        <v>3.43935431177144</v>
-      </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B7">
         <v>1454.938156972898</v>
@@ -730,21 +667,12 @@
         <v>44.36523018305715</v>
       </c>
       <c r="K7">
-        <v>1.515172903961339</v>
-      </c>
-      <c r="L7">
-        <v>2.485975524063778</v>
-      </c>
-      <c r="M7">
-        <v>3.43935431177144</v>
-      </c>
-      <c r="N7">
         <v>0.1786240764135566</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B8">
         <v>4771.056113366206</v>
@@ -774,15 +702,6 @@
         <v>66.36610096057976</v>
       </c>
       <c r="K8">
-        <v>1.515172903961339</v>
-      </c>
-      <c r="L8">
-        <v>2.485975524063778</v>
-      </c>
-      <c r="M8">
-        <v>3.43935431177144</v>
-      </c>
-      <c r="N8">
         <v>0.4869580228552989</v>
       </c>
     </row>
